--- a/draft/chapter3.xlsx
+++ b/draft/chapter3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Interpolated Kneser-Ney 5-gram</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,14 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RNN-2048 + BloackOut sampling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sparse Non-negative Matrix factorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LSTM-2048</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,7 +44,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>표1</t>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unigram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bigram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[표1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN-DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN-FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNMT + RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvS2S Ensemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer (base model)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer (big model)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[표3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,13 +155,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -125,10 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -433,85 +478,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:E14"/>
+  <dimension ref="D6:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>962</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="K7" s="5">
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>170</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5">
+        <v>26.36</v>
+      </c>
+      <c r="K8" s="5">
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>109</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="K9" s="5">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
         <v>67.599999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="K10" s="5">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
-        <v>68.3</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
-        <v>52.9</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>4.92</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/draft/chapter3.xlsx
+++ b/draft/chapter3.xlsx
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[표1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +93,10 @@
   </si>
   <si>
     <t>[표3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[표2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
   <dimension ref="D6:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.3">
@@ -522,7 +522,7 @@
         <v>962</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="5">
         <v>24.6</v>
@@ -542,7 +542,7 @@
         <v>170</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="5">
         <v>26.36</v>
@@ -562,7 +562,7 @@
         <v>109</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="5">
         <v>27.3</v>
@@ -582,7 +582,7 @@
         <v>67.599999999999994</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="5">
         <v>28.4</v>
@@ -600,7 +600,7 @@
         <v>51.3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
     </row>
